--- a/thresholds/IGCSE/first-language-english/first-language-english-thresholds.xlsx
+++ b/thresholds/IGCSE/first-language-english/first-language-english-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,118 +1067,118 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AR (A1) 03,11</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C16" t="n">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="F16" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G16" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H16" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AS (A2) 03,12</t>
+          <t>P2 50,60</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C17" t="n">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D17" t="n">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="F17" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H17" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I17" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AT (A3) 03,13</t>
+          <t>AR (A1) 03,11</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>160</v>
       </c>
       <c r="C18" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D18" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E18" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F18" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G18" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H18" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1190,36 +1190,36 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AX (A1) 03,11</t>
+          <t>AS (A2) 03,12</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>160</v>
       </c>
       <c r="C19" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E19" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F19" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G19" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H19" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1231,36 +1231,36 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AY (A2) 03,12</t>
+          <t>AT (A3) 03,13</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>160</v>
       </c>
       <c r="C20" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D20" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E20" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F20" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" t="n">
         <v>66</v>
       </c>
       <c r="H20" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1272,36 +1272,36 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AZ (A3) 03,13</t>
+          <t>AX (A1) 03,11</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>160</v>
       </c>
       <c r="C21" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D21" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F21" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G21" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H21" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1313,36 +1313,36 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BR (B1) 11,21</t>
+          <t>AY (A2) 03,12</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>160</v>
       </c>
       <c r="C22" t="n">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D22" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E22" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F22" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G22" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H22" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I22" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1354,36 +1354,36 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>BS (B2) 12,22</t>
+          <t>AZ (A3) 03,13</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>160</v>
       </c>
       <c r="C23" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D23" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E23" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G23" t="n">
         <v>66</v>
       </c>
       <c r="H23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1395,36 +1395,36 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>BT (B3) 13,23</t>
+          <t>BR (B1) 11,21</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>160</v>
       </c>
       <c r="C24" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D24" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E24" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G24" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H24" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I24" t="n">
         <v>37</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1436,36 +1436,36 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BX (B1) 11,21</t>
+          <t>BS (B2) 12,22</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>160</v>
       </c>
       <c r="C25" t="n">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D25" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E25" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F25" t="n">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G25" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H25" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I25" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1477,36 +1477,36 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BY (B2) 12,22</t>
+          <t>BT (B3) 13,23</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>160</v>
       </c>
       <c r="C26" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D26" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E26" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F26" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1518,36 +1518,36 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>BZ (B3) 13,23</t>
+          <t>BX (B1) 11,21</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>160</v>
       </c>
       <c r="C27" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D27" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E27" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F27" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G27" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H27" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I27" t="n">
         <v>37</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1559,20 +1559,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>CS (CJ2) 12,83</t>
+          <t>BY (B2) 12,22</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>160</v>
       </c>
       <c r="C28" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D28" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F28" t="n">
         <v>82</v>
@@ -1600,36 +1600,36 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>CS (CN2) 12,93</t>
+          <t>BZ (B3) 13,23</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>160</v>
       </c>
       <c r="C29" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D29" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E29" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F29" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" t="n">
         <v>65</v>
       </c>
       <c r="H29" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I29" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1641,36 +1641,36 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>CT (CJ3) 13,83</t>
+          <t>CS (CJ2) 12,83</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>160</v>
       </c>
       <c r="C30" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D30" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E30" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F30" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G30" t="n">
         <v>66</v>
       </c>
       <c r="H30" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1682,36 +1682,36 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>CT (CN3) 13,93</t>
+          <t>CS (CN2) 12,93</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>160</v>
       </c>
       <c r="C31" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D31" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E31" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F31" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" t="n">
         <v>65</v>
       </c>
       <c r="H31" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1723,36 +1723,36 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>CU (CJ2) 12,83</t>
+          <t>CT (CJ3) 13,83</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>160</v>
       </c>
       <c r="C32" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D32" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E32" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F32" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" t="n">
         <v>66</v>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I32" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1764,36 +1764,36 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CU (CM2) 12,73</t>
+          <t>CT (CN3) 13,93</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>160</v>
       </c>
       <c r="C33" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D33" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E33" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F33" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" t="n">
         <v>65</v>
       </c>
       <c r="H33" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I33" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -1805,36 +1805,36 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>CU (CN2) 12,93</t>
+          <t>CU (CJ2) 12,83</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>160</v>
       </c>
       <c r="C34" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F34" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G34" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I34" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1846,36 +1846,36 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>CY (CJ2) 12,83</t>
+          <t>CU (CM2) 12,73</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>160</v>
       </c>
       <c r="C35" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G35" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -1887,7 +1887,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>CY (CN2) 12,93</t>
+          <t>CU (CN2) 12,93</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1928,130 +1928,130 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AR (A1) 03,11</t>
+          <t>CY (CJ2) 12,83</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>160</v>
       </c>
       <c r="C37" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D37" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E37" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F37" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G37" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H37" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I37" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>AS (A2) 03,12</t>
+          <t>CY (CN2) 12,93</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>160</v>
       </c>
       <c r="C38" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D38" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E38" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F38" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G38" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H38" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I38" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AT (A3) 03,13</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C39" t="n">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D39" t="n">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="E39" t="n">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="F39" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="G39" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="H39" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I39" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>AX (A1) 03,11</t>
+          <t>AR (A1) 03,11</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2092,7 +2092,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>AY (A2) 03,12</t>
+          <t>AS (A2) 03,12</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2133,7 +2133,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>AZ (A3) 03,13</t>
+          <t>AT (A3) 03,13</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2174,23 +2174,23 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>BR (B1) 11,21</t>
+          <t>AX (A1) 03,11</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>160</v>
       </c>
       <c r="C43" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D43" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E43" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F43" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" t="n">
         <v>64</v>
@@ -2215,20 +2215,20 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>BS (B2) 12,22</t>
+          <t>AY (A2) 03,12</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>160</v>
       </c>
       <c r="C44" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D44" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E44" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F44" t="n">
         <v>83</v>
@@ -2256,26 +2256,26 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>BT (B3) 13,23</t>
+          <t>AZ (A3) 03,13</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>160</v>
       </c>
       <c r="C45" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D45" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E45" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F45" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H45" t="n">
         <v>56</v>
@@ -2297,7 +2297,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>BX (B1) 11,21</t>
+          <t>BR (B1) 11,21</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2338,7 +2338,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>BY (B2) 12,22</t>
+          <t>BS (B2) 12,22</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2379,7 +2379,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>BZ (B3) 13,23</t>
+          <t>BT (B3) 13,23</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2420,23 +2420,23 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>CR (CJ1) 11,83</t>
+          <t>BX (B1) 11,21</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>160</v>
       </c>
       <c r="C49" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D49" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E49" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F49" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G49" t="n">
         <v>64</v>
@@ -2461,32 +2461,32 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>CR (CN1) 11,93</t>
+          <t>BY (B2) 12,22</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>160</v>
       </c>
       <c r="C50" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D50" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E50" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F50" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G50" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H50" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I50" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2502,36 +2502,36 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>CS (CJ2) 12,83</t>
+          <t>BZ (B3) 13,23</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>160</v>
       </c>
       <c r="C51" t="n">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D51" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E51" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G51" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H51" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I51" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -2543,36 +2543,36 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>CS (CN2) 12,93</t>
+          <t>CR (CJ1) 11,83</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>160</v>
       </c>
       <c r="C52" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D52" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E52" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F52" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G52" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H52" t="n">
         <v>52</v>
       </c>
       <c r="I52" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -2584,36 +2584,36 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>CT (CJ3) 13,83</t>
+          <t>CR (CN1) 11,93</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>160</v>
       </c>
       <c r="C53" t="n">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D53" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E53" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F53" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G53" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H53" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I53" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -2625,26 +2625,26 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>CT (CN3) 13,93</t>
+          <t>CS (CJ2) 12,83</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>160</v>
       </c>
       <c r="C54" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D54" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E54" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F54" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G54" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H54" t="n">
         <v>54</v>
@@ -2666,32 +2666,32 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>AR (A1) 03,11</t>
+          <t>CS (CN2) 12,93</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>160</v>
       </c>
       <c r="C55" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D55" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E55" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F55" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G55" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H55" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I55" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2700,197 +2700,197 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>AS (A2) 03,12</t>
+          <t>CT (CJ3) 13,83</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>160</v>
       </c>
       <c r="C56" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D56" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E56" t="n">
         <v>98</v>
       </c>
       <c r="F56" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G56" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H56" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I56" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>AT (A3) 03,13</t>
+          <t>CT (CN3) 13,93</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>160</v>
       </c>
       <c r="C57" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D57" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E57" t="n">
         <v>96</v>
       </c>
       <c r="F57" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G57" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H57" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I57" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>AY (A2) 03,12</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C58" t="n">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D58" t="n">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="E58" t="n">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F58" t="n">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="G58" t="n">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H58" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I58" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>AZ (A3) 03,13</t>
+          <t>P2 50,60</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C59" t="n">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D59" t="n">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E59" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F59" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G59" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H59" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I59" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>BR (B1) 11,21</t>
+          <t>AR (A1) 03,11</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>160</v>
       </c>
       <c r="C60" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D60" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E60" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F60" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G60" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H60" t="n">
         <v>50</v>
@@ -2912,20 +2912,20 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>BS (B2) 12,22</t>
+          <t>AS (A2) 03,12</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>160</v>
       </c>
       <c r="C61" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D61" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E61" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F61" t="n">
         <v>83</v>
@@ -2953,20 +2953,20 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>BT (B3) 13,23</t>
+          <t>AT (A3) 03,13</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>160</v>
       </c>
       <c r="C62" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D62" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E62" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F62" t="n">
         <v>82</v>
@@ -2994,36 +2994,36 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>BX (B1) 11,21</t>
+          <t>AY (A2) 03,12</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>160</v>
       </c>
       <c r="C63" t="n">
+        <v>128</v>
+      </c>
+      <c r="D63" t="n">
         <v>113</v>
       </c>
-      <c r="D63" t="n">
-        <v>101</v>
-      </c>
       <c r="E63" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F63" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G63" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H63" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I63" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3035,7 +3035,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>BY (B2) 12,22</t>
+          <t>AZ (A3) 03,13</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3051,16 +3051,16 @@
         <v>96</v>
       </c>
       <c r="F64" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G64" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H64" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I64" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3076,36 +3076,36 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>BZ (B3) 13,23</t>
+          <t>BR (B1) 11,21</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>160</v>
       </c>
       <c r="C65" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D65" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E65" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F65" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G65" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H65" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I65" t="n">
         <v>36</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3117,36 +3117,36 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>CR (CJ1) 11,83</t>
+          <t>BS (B2) 12,22</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>160</v>
       </c>
       <c r="C66" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D66" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E66" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F66" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G66" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H66" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I66" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3158,36 +3158,36 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>CR (CN1) 11,93</t>
+          <t>BT (B3) 13,23</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>160</v>
       </c>
       <c r="C67" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D67" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E67" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F67" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G67" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H67" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I67" t="n">
         <v>36</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3199,36 +3199,36 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>CS (CJ2) 12,83</t>
+          <t>BX (B1) 11,21</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>160</v>
       </c>
       <c r="C68" t="n">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D68" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E68" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F68" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G68" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H68" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I68" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -3240,20 +3240,20 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>CS (CN2) 12,93</t>
+          <t>BY (B2) 12,22</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>160</v>
       </c>
       <c r="C69" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D69" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E69" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F69" t="n">
         <v>83</v>
@@ -3281,20 +3281,20 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>CT (CJ3) 13,83</t>
+          <t>BZ (B3) 13,23</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>160</v>
       </c>
       <c r="C70" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D70" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E70" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" t="n">
         <v>82</v>
@@ -3322,36 +3322,36 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>CT (CN3) 13,93</t>
+          <t>CR (CJ1) 11,83</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>160</v>
       </c>
       <c r="C71" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D71" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E71" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F71" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G71" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H71" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I71" t="n">
         <v>36</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -3363,36 +3363,36 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>CY (CJ2) 12,83</t>
+          <t>CR (CN1) 11,93</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>160</v>
       </c>
       <c r="C72" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D72" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E72" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F72" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G72" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H72" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I72" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>CY (CN2) 12,93</t>
+          <t>CS (CJ2) 12,83</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3445,32 +3445,32 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>CZ (CJ3) 13,83</t>
+          <t>CS (CN2) 12,93</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>160</v>
       </c>
       <c r="C74" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D74" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E74" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F74" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G74" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H74" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I74" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>CZ (CN3) 13,93</t>
+          <t>CT (CJ3) 13,83</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3527,395 +3527,395 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>AS (A2) 03,12</t>
+          <t>CT (CN3) 13,93</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>160</v>
       </c>
       <c r="C76" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D76" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E76" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F76" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G76" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H76" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I76" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>AY (A2) 03,12</t>
+          <t>CY (CJ2) 12,83</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>160</v>
       </c>
       <c r="C77" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D77" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E77" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F77" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G77" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H77" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I77" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>BS (B2) 12,22</t>
+          <t>CY (CN2) 12,93</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>160</v>
       </c>
       <c r="C78" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D78" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E78" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F78" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G78" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H78" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I78" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>BY (B2) 12,22</t>
+          <t>CZ (CJ3) 13,83</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>160</v>
       </c>
       <c r="C79" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D79" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E79" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F79" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G79" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H79" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I79" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>March 2023</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>AS (A2) 03,12</t>
+          <t>CZ (CN3) 13,93</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>160</v>
       </c>
       <c r="C80" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D80" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E80" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F80" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G80" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H80" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I80" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>AY (A2) 03,12</t>
+          <t>AS (A2) 03,12</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>160</v>
       </c>
       <c r="C81" t="n">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D81" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E81" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F81" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G81" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H81" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I81" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>BS (B2) 12,22</t>
+          <t>AY (A2) 03,12</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>160</v>
       </c>
       <c r="C82" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D82" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E82" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F82" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G82" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H82" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I82" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>BY (B2) 12,22</t>
+          <t>BS (B2) 12,22</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>160</v>
       </c>
       <c r="C83" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D83" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E83" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F83" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G83" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H83" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I83" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>March 2024</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>AS (A2) 03,12</t>
+          <t>BY (B2) 12,22</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>160</v>
       </c>
       <c r="C84" t="n">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D84" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E84" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F84" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G84" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H84" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I84" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2023</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>BS (B2) 12,22</t>
+          <t>AS (A2) 03,12</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>160</v>
       </c>
       <c r="C85" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D85" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E85" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F85" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H85" t="n">
         <v>55</v>
@@ -3930,33 +3930,33 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>BY (B2) 12,22</t>
+          <t>AY (A2) 03,12</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>160</v>
       </c>
       <c r="C86" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D86" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E86" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F86" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G86" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H86" t="n">
         <v>55</v>
@@ -3971,55 +3971,55 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>March 2025</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>AR (A1) 03,11</t>
+          <t>BS (B2) 12,22</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>160</v>
       </c>
       <c r="C87" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D87" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F87" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G87" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H87" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I87" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>AS (A2) 03,12</t>
+          <t>BY (B2) 12,22</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -4029,341 +4029,341 @@
         <v>120</v>
       </c>
       <c r="D88" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F88" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G88" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H88" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I88" t="n">
         <v>40</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2024</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>AT (A3) 03,13</t>
+          <t>AS (A2) 03,12</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>160</v>
       </c>
       <c r="C89" t="n">
+        <v>130</v>
+      </c>
+      <c r="D89" t="n">
         <v>115</v>
       </c>
-      <c r="D89" t="n">
-        <v>102</v>
-      </c>
       <c r="E89" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F89" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G89" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H89" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I89" t="n">
         <v>40</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>AX (A1) 03,11</t>
+          <t>BS (B2) 12,22</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>160</v>
       </c>
       <c r="C90" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D90" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E90" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F90" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G90" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H90" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I90" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>AY (A2) 03,12</t>
+          <t>BY (B2) 12,22</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>160</v>
       </c>
       <c r="C91" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D91" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E91" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F91" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G91" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H91" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I91" t="n">
         <v>40</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2025</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>BR (B1) 11,21</t>
+          <t>AS (A2) 03,12</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D92" t="n">
         <v>102</v>
       </c>
       <c r="E92" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F92" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G92" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H92" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I92" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>BS (B2) 12,22</t>
+          <t>AY (A2) 03,12</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D93" t="n">
         <v>102</v>
       </c>
       <c r="E93" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F93" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G93" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H93" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I93" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>BT (B3) 13,23</t>
+          <t>BS (B2) 12,22</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D94" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E94" t="n">
         <v>86</v>
       </c>
       <c r="F94" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G94" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H94" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I94" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>BX (B1) 11,21</t>
+          <t>BY (B2) 12,22</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D95" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E95" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F95" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G95" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H95" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I95" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>March 2022</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>BY (B2) 12,22</t>
+          <t>AR (A1) 03,11</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>160</v>
       </c>
       <c r="C96" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D96" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E96" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F96" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G96" t="n">
         <v>65</v>
@@ -4372,11 +4372,11 @@
         <v>53</v>
       </c>
       <c r="I96" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -4388,26 +4388,26 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>BZ (B3) 13,23</t>
+          <t>AS (A2) 03,12</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>160</v>
       </c>
       <c r="C97" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D97" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E97" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F97" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G97" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H97" t="n">
         <v>53</v>
@@ -4429,32 +4429,32 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>CR (CJ1) 11,83</t>
+          <t>AT (A3) 03,13</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>160</v>
       </c>
       <c r="C98" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D98" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E98" t="n">
         <v>89</v>
       </c>
       <c r="F98" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G98" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H98" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I98" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4470,36 +4470,36 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>CR (CN1) 11,93</t>
+          <t>AX (A1) 03,11</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>160</v>
       </c>
       <c r="C99" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D99" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E99" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F99" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G99" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H99" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I99" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -4511,36 +4511,36 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>CS (CJ2) 12,83</t>
+          <t>AY (A2) 03,12</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>160</v>
       </c>
       <c r="C100" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D100" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E100" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F100" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G100" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H100" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I100" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -4552,36 +4552,36 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>CS (CN2) 12,93</t>
+          <t>BR (B1) 11,21</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>160</v>
       </c>
       <c r="C101" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D101" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E101" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F101" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G101" t="n">
         <v>64</v>
       </c>
       <c r="H101" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I101" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -4593,36 +4593,36 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>CT (CJ3) 13,83</t>
+          <t>BS (B2) 12,22</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>160</v>
       </c>
       <c r="C102" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D102" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E102" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F102" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G102" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H102" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I102" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -4634,36 +4634,36 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>CT (CN3) 13,93</t>
+          <t>BT (B3) 13,23</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>160</v>
       </c>
       <c r="C103" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D103" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E103" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F103" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G103" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H103" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I103" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -4675,26 +4675,26 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>AR (A1) 03,11</t>
+          <t>BX (B1) 11,21</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>160</v>
       </c>
       <c r="C104" t="n">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D104" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E104" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F104" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G104" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H104" t="n">
         <v>53</v>
@@ -4709,260 +4709,260 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>AS (A2) 03,12</t>
+          <t>BY (B2) 12,22</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>160</v>
       </c>
       <c r="C105" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D105" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E105" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F105" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G105" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H105" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I105" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>AT (A3) 03,13</t>
+          <t>BZ (B3) 13,23</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>160</v>
       </c>
       <c r="C106" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D106" t="n">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E106" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F106" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G106" t="n">
         <v>64</v>
       </c>
       <c r="H106" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I106" t="n">
         <v>40</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>AX (A1) 03,11</t>
+          <t>CR (CJ1) 11,83</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>160</v>
       </c>
       <c r="C107" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D107" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E107" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F107" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G107" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H107" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I107" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>AY (A2) 03,12</t>
+          <t>CR (CN1) 11,93</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>160</v>
       </c>
       <c r="C108" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D108" t="n">
         <v>104</v>
       </c>
       <c r="E108" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F108" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G108" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H108" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I108" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>BR (B1) 11,21</t>
+          <t>CS (CJ2) 12,83</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>160</v>
       </c>
       <c r="C109" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D109" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E109" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F109" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G109" t="n">
         <v>64</v>
       </c>
       <c r="H109" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I109" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>BS (B2) 12,22</t>
+          <t>CS (CN2) 12,93</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>160</v>
       </c>
       <c r="C110" t="n">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D110" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E110" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F110" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G110" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H110" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I110" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>BT (B3) 13,23</t>
+          <t>CT (CJ3) 13,83</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -4978,155 +4978,155 @@
         <v>87</v>
       </c>
       <c r="F111" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G111" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H111" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I111" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>BX (B1) 11,21</t>
+          <t>CT (CN3) 13,93</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>160</v>
       </c>
       <c r="C112" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D112" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E112" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F112" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G112" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H112" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I112" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>BY (B2) 12,22</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C113" t="n">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D113" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="E113" t="n">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="F113" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="G113" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H113" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I113" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>CR (CJ1) 11,83</t>
+          <t>P2 50,60</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C114" t="n">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="D114" t="n">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E114" t="n">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F114" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G114" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H114" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I114" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>CR (CN1) 11,93</t>
+          <t>AR (A1) 03,11</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -5167,7 +5167,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>CS (CJ2) 12,83</t>
+          <t>AS (A2) 03,12</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -5208,32 +5208,32 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>CS (CN2) 12,93</t>
+          <t>AT (A3) 03,13</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>160</v>
       </c>
       <c r="C117" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D117" t="n">
         <v>104</v>
       </c>
       <c r="E117" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F117" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G117" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H117" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I117" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5249,64 +5249,64 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>AR 03,11</t>
+          <t>AX (A1) 03,11</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>160</v>
       </c>
       <c r="C118" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D118" t="n">
         <v>106</v>
       </c>
       <c r="E118" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F118" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G118" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H118" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I118" t="n">
         <v>41</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>AS 03,12</t>
+          <t>AY (A2) 03,12</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>160</v>
       </c>
       <c r="C119" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D119" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E119" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F119" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G119" t="n">
         <v>66</v>
@@ -5324,14 +5324,14 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>AT 03,13</t>
+          <t>BR (B1) 11,21</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -5347,48 +5347,48 @@
         <v>89</v>
       </c>
       <c r="F120" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G120" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H120" t="n">
         <v>53</v>
       </c>
       <c r="I120" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>AX 03,11</t>
+          <t>BS (B2) 12,22</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>160</v>
       </c>
       <c r="C121" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D121" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E121" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F121" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G121" t="n">
         <v>66</v>
@@ -5406,39 +5406,39 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>AY 03,12</t>
+          <t>BT (B3) 13,23</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>160</v>
       </c>
       <c r="C122" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D122" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E122" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F122" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G122" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H122" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I122" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -5447,74 +5447,74 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>BR 11,21</t>
+          <t>BX (B1) 11,21</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>160</v>
       </c>
       <c r="C123" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D123" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E123" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F123" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G123" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H123" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I123" t="n">
         <v>41</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>BS 12,22</t>
+          <t>BY (B2) 12,22</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>160</v>
       </c>
       <c r="C124" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D124" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E124" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F124" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G124" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H124" t="n">
         <v>54</v>
@@ -5529,115 +5529,115 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>BT 13,23</t>
+          <t>CR (CJ1) 11,83</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>160</v>
       </c>
       <c r="C125" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D125" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E125" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F125" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G125" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H125" t="n">
         <v>53</v>
       </c>
       <c r="I125" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>BX 11,21</t>
+          <t>CR (CN1) 11,93</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>160</v>
       </c>
       <c r="C126" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D126" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E126" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F126" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G126" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H126" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I126" t="n">
         <v>41</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>BY 12,22</t>
+          <t>CS (CJ2) 12,83</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>160</v>
       </c>
       <c r="C127" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D127" t="n">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E127" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F127" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G127" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H127" t="n">
         <v>54</v>
@@ -5652,27 +5652,27 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>CR 11,83</t>
+          <t>CS (CN2) 12,93</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>160</v>
       </c>
       <c r="C128" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D128" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E128" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F128" t="n">
         <v>79</v>
@@ -5693,14 +5693,14 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>CR 11,93</t>
+          <t>AR 03,11</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -5741,7 +5741,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>CS 12,83</t>
+          <t>AS 03,12</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -5782,36 +5782,36 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>CS 12,93</t>
+          <t>AT 03,13</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>160</v>
       </c>
       <c r="C131" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D131" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E131" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F131" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G131" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H131" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I131" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -5823,7 +5823,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>CX 11,83</t>
+          <t>AX 03,11</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -5864,23 +5864,23 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>CX 11,93</t>
+          <t>AY 03,12</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>160</v>
       </c>
       <c r="C133" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D133" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E133" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F133" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G133" t="n">
         <v>66</v>
@@ -5897,6 +5897,498 @@
         </is>
       </c>
       <c r="K133" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>BR 11,21</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>160</v>
+      </c>
+      <c r="C134" t="n">
+        <v>116</v>
+      </c>
+      <c r="D134" t="n">
+        <v>103</v>
+      </c>
+      <c r="E134" t="n">
+        <v>90</v>
+      </c>
+      <c r="F134" t="n">
+        <v>78</v>
+      </c>
+      <c r="G134" t="n">
+        <v>66</v>
+      </c>
+      <c r="H134" t="n">
+        <v>54</v>
+      </c>
+      <c r="I134" t="n">
+        <v>41</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>BS 12,22</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>160</v>
+      </c>
+      <c r="C135" t="n">
+        <v>109</v>
+      </c>
+      <c r="D135" t="n">
+        <v>98</v>
+      </c>
+      <c r="E135" t="n">
+        <v>87</v>
+      </c>
+      <c r="F135" t="n">
+        <v>76</v>
+      </c>
+      <c r="G135" t="n">
+        <v>65</v>
+      </c>
+      <c r="H135" t="n">
+        <v>54</v>
+      </c>
+      <c r="I135" t="n">
+        <v>41</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>BT 13,23</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>160</v>
+      </c>
+      <c r="C136" t="n">
+        <v>111</v>
+      </c>
+      <c r="D136" t="n">
+        <v>99</v>
+      </c>
+      <c r="E136" t="n">
+        <v>87</v>
+      </c>
+      <c r="F136" t="n">
+        <v>76</v>
+      </c>
+      <c r="G136" t="n">
+        <v>64</v>
+      </c>
+      <c r="H136" t="n">
+        <v>53</v>
+      </c>
+      <c r="I136" t="n">
+        <v>40</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>BX 11,21</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>160</v>
+      </c>
+      <c r="C137" t="n">
+        <v>116</v>
+      </c>
+      <c r="D137" t="n">
+        <v>103</v>
+      </c>
+      <c r="E137" t="n">
+        <v>90</v>
+      </c>
+      <c r="F137" t="n">
+        <v>78</v>
+      </c>
+      <c r="G137" t="n">
+        <v>66</v>
+      </c>
+      <c r="H137" t="n">
+        <v>54</v>
+      </c>
+      <c r="I137" t="n">
+        <v>41</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>BY 12,22</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>160</v>
+      </c>
+      <c r="C138" t="n">
+        <v>109</v>
+      </c>
+      <c r="D138" t="n">
+        <v>98</v>
+      </c>
+      <c r="E138" t="n">
+        <v>87</v>
+      </c>
+      <c r="F138" t="n">
+        <v>76</v>
+      </c>
+      <c r="G138" t="n">
+        <v>65</v>
+      </c>
+      <c r="H138" t="n">
+        <v>54</v>
+      </c>
+      <c r="I138" t="n">
+        <v>41</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>CR 11,83</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>160</v>
+      </c>
+      <c r="C139" t="n">
+        <v>120</v>
+      </c>
+      <c r="D139" t="n">
+        <v>106</v>
+      </c>
+      <c r="E139" t="n">
+        <v>92</v>
+      </c>
+      <c r="F139" t="n">
+        <v>79</v>
+      </c>
+      <c r="G139" t="n">
+        <v>66</v>
+      </c>
+      <c r="H139" t="n">
+        <v>54</v>
+      </c>
+      <c r="I139" t="n">
+        <v>41</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>CR 11,93</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>160</v>
+      </c>
+      <c r="C140" t="n">
+        <v>120</v>
+      </c>
+      <c r="D140" t="n">
+        <v>106</v>
+      </c>
+      <c r="E140" t="n">
+        <v>92</v>
+      </c>
+      <c r="F140" t="n">
+        <v>79</v>
+      </c>
+      <c r="G140" t="n">
+        <v>66</v>
+      </c>
+      <c r="H140" t="n">
+        <v>54</v>
+      </c>
+      <c r="I140" t="n">
+        <v>41</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>CS 12,83</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>160</v>
+      </c>
+      <c r="C141" t="n">
+        <v>116</v>
+      </c>
+      <c r="D141" t="n">
+        <v>103</v>
+      </c>
+      <c r="E141" t="n">
+        <v>90</v>
+      </c>
+      <c r="F141" t="n">
+        <v>78</v>
+      </c>
+      <c r="G141" t="n">
+        <v>66</v>
+      </c>
+      <c r="H141" t="n">
+        <v>54</v>
+      </c>
+      <c r="I141" t="n">
+        <v>41</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>CS 12,93</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>160</v>
+      </c>
+      <c r="C142" t="n">
+        <v>116</v>
+      </c>
+      <c r="D142" t="n">
+        <v>103</v>
+      </c>
+      <c r="E142" t="n">
+        <v>90</v>
+      </c>
+      <c r="F142" t="n">
+        <v>78</v>
+      </c>
+      <c r="G142" t="n">
+        <v>66</v>
+      </c>
+      <c r="H142" t="n">
+        <v>54</v>
+      </c>
+      <c r="I142" t="n">
+        <v>41</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>CX 11,83</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>160</v>
+      </c>
+      <c r="C143" t="n">
+        <v>120</v>
+      </c>
+      <c r="D143" t="n">
+        <v>106</v>
+      </c>
+      <c r="E143" t="n">
+        <v>92</v>
+      </c>
+      <c r="F143" t="n">
+        <v>79</v>
+      </c>
+      <c r="G143" t="n">
+        <v>66</v>
+      </c>
+      <c r="H143" t="n">
+        <v>54</v>
+      </c>
+      <c r="I143" t="n">
+        <v>41</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>CX 11,93</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>160</v>
+      </c>
+      <c r="C144" t="n">
+        <v>120</v>
+      </c>
+      <c r="D144" t="n">
+        <v>106</v>
+      </c>
+      <c r="E144" t="n">
+        <v>92</v>
+      </c>
+      <c r="F144" t="n">
+        <v>79</v>
+      </c>
+      <c r="G144" t="n">
+        <v>66</v>
+      </c>
+      <c r="H144" t="n">
+        <v>54</v>
+      </c>
+      <c r="I144" t="n">
+        <v>41</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>P1 50</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>90</v>
+      </c>
+      <c r="C145" t="n">
+        <v>74</v>
+      </c>
+      <c r="D145" t="n">
+        <v>64</v>
+      </c>
+      <c r="E145" t="n">
+        <v>54</v>
+      </c>
+      <c r="F145" t="n">
+        <v>45</v>
+      </c>
+      <c r="G145" t="n">
+        <v>37</v>
+      </c>
+      <c r="H145" t="n">
+        <v>29</v>
+      </c>
+      <c r="I145" t="n">
+        <v>22</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
